--- a/氣象性能評估工具V2/data/obs/2016-06-01_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-01_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="228">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.8</t>
+  </si>
+  <si>
     <t>2016-06-01-00</t>
   </si>
   <si>
-    <t>22.8</t>
-  </si>
-  <si>
     <t>27.5</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>29.1</t>
   </si>
   <si>
+    <t>22.6</t>
+  </si>
+  <si>
     <t>2016-06-01-01</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>27.3</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>26.3</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-01-02</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>23.6</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>26.0</t>
   </si>
   <si>
+    <t>21.9</t>
+  </si>
+  <si>
     <t>2016-06-01-03</t>
   </si>
   <si>
-    <t>21.9</t>
-  </si>
-  <si>
     <t>26.4</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>25.8</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-01-04</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>26.5</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>6.7</t>
   </si>
   <si>
+    <t>22.9</t>
+  </si>
+  <si>
     <t>2016-06-01-06</t>
   </si>
   <si>
-    <t>22.9</t>
-  </si>
-  <si>
     <t>29.7</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>29.5</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-01-07</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>24.4</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>30.9</t>
   </si>
   <si>
+    <t>23.0</t>
+  </si>
+  <si>
     <t>2016-06-01-08</t>
   </si>
   <si>
-    <t>23.0</t>
-  </si>
-  <si>
     <t>24.9</t>
   </si>
   <si>
@@ -415,12 +415,12 @@
     <t>31.6</t>
   </si>
   <si>
+    <t>23.8</t>
+  </si>
+  <si>
     <t>2016-06-01-09</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>33.2</t>
   </si>
   <si>
@@ -652,12 +652,12 @@
     <t>14.5</t>
   </si>
   <si>
+    <t>24.1</t>
+  </si>
+  <si>
     <t>2016-06-01-19</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
     <t>13.6</t>
   </si>
   <si>
@@ -667,10 +667,10 @@
     <t>2016-06-01-20</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-01-21</t>
-  </si>
-  <si>
-    <t>23.4</t>
   </si>
   <si>
     <t>24.8</t>
@@ -704,6 +704,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -733,8 +736,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,11 +1117,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1190,11 +1194,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1267,11 +1271,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1344,11 +1348,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1421,11 +1425,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -1498,11 +1502,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1575,11 +1579,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -1652,11 +1656,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
         <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1729,11 +1733,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>109</v>
@@ -1806,11 +1810,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -1883,7 +1887,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B12" t="s">
@@ -1960,7 +1964,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B13" t="s">
@@ -2037,7 +2041,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B14" t="s">
@@ -2114,7 +2118,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B15" t="s">
@@ -2191,7 +2195,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B16" t="s">
@@ -2268,7 +2272,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B17" t="s">
@@ -2345,7 +2349,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B18" t="s">
@@ -2422,7 +2426,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B19" t="s">
@@ -2499,7 +2503,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B20" t="s">
@@ -2576,11 +2580,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s">
         <v>212</v>
-      </c>
-      <c r="B21" t="s">
-        <v>213</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2619,7 +2623,7 @@
         <v>29</v>
       </c>
       <c r="O21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P21" t="s">
         <v>214</v>
@@ -2653,11 +2657,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -2696,7 +2700,7 @@
         <v>56</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s">
         <v>93</v>
@@ -2730,11 +2734,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
         <v>217</v>
-      </c>
-      <c r="B23" t="s">
-        <v>218</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -2773,7 +2777,7 @@
         <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P23" t="s">
         <v>220</v>
@@ -2807,11 +2811,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
@@ -2850,7 +2854,7 @@
         <v>47</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P24" t="s">
         <v>93</v>
@@ -2884,11 +2888,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
